--- a/product_barcodes.xlsx
+++ b/product_barcodes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,233 +458,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Plastic Bucket1</t>
+          <t>red comb</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Plastic</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8961707537925</v>
+          <t>comb</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>8927140048333</t>
+        </is>
       </c>
       <c r="D2" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Plastic Bucket1</t>
+          <t>asdfgh</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Plastic</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8940121404026</v>
+          <t>comb</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>8988072297535</t>
+        </is>
       </c>
       <c r="D3" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Plastic Bucket1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Plastic</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8985952868142</v>
-      </c>
-      <c r="D4" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>toys</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Plastic</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8981531044122</v>
-      </c>
-      <c r="D5" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Red Combo</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Combo</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>8966562819068</v>
-      </c>
-      <c r="D6" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>werfghj</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Plastic</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>8921527845493</v>
-      </c>
-      <c r="D7" t="n">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>as</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>8974313747153</v>
-      </c>
-      <c r="D8" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>sd</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>as</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>8914129922824</v>
-      </c>
-      <c r="D9" t="n">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>toys</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>as</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>8948991995228</v>
-      </c>
-      <c r="D10" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Toy Car</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>toys</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>8903674868036</v>
-      </c>
-      <c r="D11" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>ammu</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>toys</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>8921545113153</v>
-      </c>
-      <c r="D12" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>sangeetha</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>toys</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>8917783632841</v>
-      </c>
-      <c r="D13" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>moram</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>plastic</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>8926174250095</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>20</v>
+        <v>1212</v>
       </c>
     </row>
   </sheetData>

--- a/product_barcodes.xlsx
+++ b/product_barcodes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,26 @@
         <v>1212</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>comb</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0136413</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/product_barcodes.xlsx
+++ b/product_barcodes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,60 +458,700 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>red comb</t>
+          <t>10rs comb</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>comb</t>
+          <t>plastic</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>8927140048333</t>
+          <t>0188</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>asdfgh</t>
+          <t>Jump</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>comb</t>
+          <t>50rs toys</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>8988072297535</t>
+          <t>0136</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1212</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>as</t>
+          <t>cat drums</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>comb</t>
+          <t>50rs toys</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0136413</t>
+          <t>0110</t>
         </is>
       </c>
       <c r="D4" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>drum strict</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>50rs toys</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>umbrella</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>50rs toys</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0181</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>spinning top</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>50rs toys</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0151</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>pipi</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>50rs toys</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0100</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>yoyo</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>50rs toys</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0136</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>piano</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>50rs toys</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0115</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">pushing </t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>50rs toys</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>spiner</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>50rs toys</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>50rs toys</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0172</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Big Size mug</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0131</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>medinum size mug</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0184</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>small size mug</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0129</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Mavu Filter</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0130</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>bottle Clear</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0156</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>soap box</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0154</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>sliver tea filter</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0128</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>water filter big</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>tea filter</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Moram</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0161</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>silver dress clip</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>comb1</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pavada nada</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>water cap filter</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0125</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>green subber</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>sink clean brush</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0189</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>hand</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0140</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>color kithen subber</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0123</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>bath subber brush</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0137</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>razor sliver</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>razor plastic</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0164</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>wood cclip</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0110</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>dress brush</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>10rs comb</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>50rs toys</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0115</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
         <v>10</v>
       </c>
     </row>
